--- a/dataset/btc_data_new.xlsx
+++ b/dataset/btc_data_new.xlsx
@@ -1616,7 +1616,7 @@
         <v>60675.8046875</v>
       </c>
       <c r="D33" t="n">
-        <v>61030.515625</v>
+        <v>61030.11328125</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>0.8414584738255375</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8230435400926746</v>
+        <v>0.8230376330638882</v>
       </c>
       <c r="J33" t="n">
         <v>0.5666666666666667</v>

--- a/dataset/btc_data_new.xlsx
+++ b/dataset/btc_data_new.xlsx
@@ -1610,13 +1610,13 @@
         <v>45424</v>
       </c>
       <c r="B33" t="n">
-        <v>61080.51171875</v>
+        <v>61288.78515625</v>
       </c>
       <c r="C33" t="n">
         <v>60675.8046875</v>
       </c>
       <c r="D33" t="n">
-        <v>61030.11328125</v>
+        <v>61123.48828125</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8148775337464538</v>
+        <v>0.8179207409836913</v>
       </c>
       <c r="H33" t="n">
         <v>0.8414584738255375</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8230376330638882</v>
+        <v>0.8244085225406985</v>
       </c>
       <c r="J33" t="n">
         <v>0.5666666666666667</v>
